--- a/程序用_正式版_对照版/PlayerAttribute.xlsx
+++ b/程序用_正式版_对照版/PlayerAttribute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F0D18B-36CA-4D41-9A70-0E5B06B3DB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9771A85-92A3-4F14-939F-E3BEEE5B5798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="34065" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="4350" windowWidth="30075" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerAttribute" sheetId="1" r:id="rId1"/>
@@ -311,9 +311,6 @@
 增加/减少</t>
   </si>
   <si>
-    <t>护甲</t>
-  </si>
-  <si>
     <t>弱点攻击倍率</t>
   </si>
   <si>
@@ -377,6 +374,10 @@
   </si>
   <si>
     <t>MajorSkillCD</t>
+  </si>
+  <si>
+    <t>护甲上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -870,7 +871,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -900,31 +901,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -932,37 +933,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -983,31 +984,31 @@
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1030,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
